--- a/data/QC/质控组仪表盘8-5.xlsx
+++ b/data/QC/质控组仪表盘8-5.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domainclient\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domainclient\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66AB56F-C47B-47B4-B6C7-7CF33658C858}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -77,9 +76,6 @@
     <t>下单错误数</t>
   </si>
   <si>
-    <t>质控组</t>
-  </si>
-  <si>
     <t>张悦</t>
   </si>
   <si>
@@ -210,12 +206,15 @@
   </si>
   <si>
     <t>总体</t>
+  </si>
+  <si>
+    <t>北京组</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -615,11 +614,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -696,226 +695,226 @@
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="H2" s="2">
         <v>2.11</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="H3" s="2">
         <v>1.85</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="H4" s="2">
         <v>6.49</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="L4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:18" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="H5" s="2">
         <v>11.12</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -925,11 +924,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -967,64 +966,64 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
@@ -1036,13 +1035,13 @@
     </row>
     <row r="2" spans="1:30" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1">
         <v>22</v>
